--- a/Excel/Planilha_Univ_DaHora.xlsx
+++ b/Excel/Planilha_Univ_DaHora.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\beacademy-fromzerotohero\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -222,7 +222,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="6">
     <dxf>
       <font>
         <color theme="0"/>
@@ -240,6 +240,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -270,46 +280,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1137,15 +1107,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1432,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2078,28 +2048,28 @@
   </sheetData>
   <autoFilter ref="A1:J1"/>
   <conditionalFormatting sqref="J2:J15">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="APROVADO">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="APROVADO">
       <formula>NOT(ISERROR(SEARCH("APROVADO",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J15">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="PROVA FINAL">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="PROVA FINAL">
       <formula>NOT(ISERROR(SEARCH("PROVA FINAL",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="REPROVADO">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="REPROVADO">
       <formula>NOT(ISERROR(SEARCH("REPROVADO",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="APROVADO">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="APROVADO">
       <formula>NOT(ISERROR(SEARCH("APROVADO",M8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="REPROVADO">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="REPROVADO">
       <formula>NOT(ISERROR(SEARCH("REPROVADO",M8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="PROVA FINAL">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="PROVA FINAL">
       <formula>NOT(ISERROR(SEARCH("PROVA FINAL",M8)))</formula>
     </cfRule>
   </conditionalFormatting>
